--- a/Doc/hardware/管脚资源.xlsx
+++ b/Doc/hardware/管脚资源.xlsx
@@ -15,68 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>gan0ling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如何使用？</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>gan0ling:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如何使用？</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="118">
   <si>
@@ -574,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,21 +535,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -666,14 +589,8 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,6 +638,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,2043 +946,2043 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="43" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="13.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="14.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="18.125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="18.125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9" style="5"/>
-    <col min="23" max="23" width="10.5" style="5" customWidth="1"/>
-    <col min="24" max="24" width="9" style="5"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="13.25" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.25" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9" style="3"/>
+    <col min="23" max="23" width="10.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f t="shared" ref="A6:A51" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <f>A8+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
     </row>
     <row r="27" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
     </row>
     <row r="32" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
     </row>
     <row r="33" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
     </row>
     <row r="34" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
     </row>
     <row r="35" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
     </row>
     <row r="39" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
     </row>
     <row r="42" spans="1:24" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
     </row>
     <row r="48" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
     </row>
     <row r="49" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3073,7 +2996,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Doc/hardware/管脚资源.xlsx
+++ b/Doc/hardware/管脚资源.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="172">
   <si>
     <t>管脚位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,233 @@
   </si>
   <si>
     <t>DEBUG Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC/DC Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug LED2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC 输入参考电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池电压采样
+ADC For Battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC总线
+AIN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC总线
+AIN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC总线
+AIN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC总线
+AIN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池供电控制
+VDD_Li_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高电平使能锂电池供电
+低电平关闭锂电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C0 SCL信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C0 SDA信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI SCK for SPI Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI MOSI For SPI Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWD Debug IO/ RESET Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWD Debug Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部有上拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI MISO for SPI Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI Flash写保护
+nSFLASH_WP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R55 10K下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1 SCL
+单总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1 SDA
+单总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去耦电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16MHz晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去耦电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外扩总线电源控制
+VDD_CON_CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高电平打开电源
+低电平关闭电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单总线芯片供电控制
+VDD_1Wire_CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Flash供电控制
+VDD_Flash_CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug LED1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +872,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,9 +1212,10 @@
     <col min="22" max="22" width="9" style="3"/>
     <col min="23" max="23" width="10.5" style="3" customWidth="1"/>
     <col min="24" max="24" width="9" style="3"/>
+    <col min="25" max="25" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1243,7 @@
       <c r="W1" s="16"/>
       <c r="X1" s="16"/>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="11"/>
@@ -1042,8 +1276,9 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1351,11 @@
       <c r="X3" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y3" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1149,13 +1387,19 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="T4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>2</v>
@@ -1188,13 +1432,19 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="T5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A51" si="0">A5+1</f>
         <v>3</v>
@@ -1227,13 +1477,21 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="T6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1266,13 +1524,21 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="T7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1305,13 +1571,21 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
+      <c r="T8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="X8" s="16"/>
     </row>
-    <row r="9" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>A8+1</f>
         <v>6</v>
@@ -1344,13 +1618,21 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="T9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="X9" s="16"/>
     </row>
-    <row r="10" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1383,13 +1665,21 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="T10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1422,13 +1712,21 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="T11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1461,13 +1759,21 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="T12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="X12" s="16"/>
     </row>
-    <row r="13" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1500,13 +1806,24 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="T13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y13" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1537,13 +1854,21 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="T14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1576,13 +1901,21 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="T15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1615,13 +1948,21 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="T16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1654,13 +1995,21 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="T17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1694,12 +2043,18 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="U18" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1733,12 +2088,18 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="U19" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X19" s="16"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1772,12 +2133,18 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
+      <c r="U20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1811,12 +2178,18 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="U21" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X21" s="16"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1850,12 +2223,18 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="U22" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X22" s="16"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1889,12 +2268,18 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
+      <c r="U23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1927,13 +2312,19 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="16"/>
+      <c r="T24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1966,13 +2357,17 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="16"/>
+      <c r="T25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2006,12 +2401,19 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="16"/>
+      <c r="U26" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="W26" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="X26" s="16"/>
-    </row>
-    <row r="27" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Y26" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2044,13 +2446,22 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="16"/>
+      <c r="T27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
+      <c r="W27" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="X27" s="16"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y27" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2083,13 +2494,17 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="16"/>
+      <c r="T28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2122,13 +2537,24 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
+      <c r="T29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="X29" s="16"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y29" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2161,13 +2587,21 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
+      <c r="T30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2201,12 +2635,18 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
+      <c r="U31" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="V31" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="W31" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2239,13 +2679,17 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="16"/>
+      <c r="T32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
     </row>
-    <row r="33" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2278,13 +2722,15 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
+      <c r="T33" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2317,13 +2763,17 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="16"/>
+      <c r="T34" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2356,13 +2806,17 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="16"/>
+      <c r="T35" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2395,13 +2849,17 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="16"/>
+      <c r="T36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2434,13 +2892,17 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="16"/>
+      <c r="T37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
     </row>
-    <row r="38" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2473,13 +2935,17 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="16"/>
+      <c r="T38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
     </row>
-    <row r="39" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2512,13 +2978,17 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="16"/>
+      <c r="T39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2551,13 +3021,17 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="16"/>
+      <c r="T40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U40" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2590,13 +3064,17 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="16"/>
+      <c r="T41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U41" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
     </row>
-    <row r="42" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2629,13 +3107,17 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="16"/>
+      <c r="T42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2668,13 +3150,20 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="16"/>
+      <c r="T43" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U43" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2707,13 +3196,20 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="16"/>
+      <c r="T44" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y44" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2746,13 +3242,20 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="16"/>
+      <c r="T45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U45" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y45" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2786,12 +3289,14 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="16"/>
+      <c r="U46" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2825,12 +3330,14 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="16"/>
+      <c r="U47" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
     </row>
-    <row r="48" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2862,7 +3369,9 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="16"/>
+      <c r="U48" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
       <c r="X48" s="16"/>
@@ -2901,7 +3410,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="16"/>
+      <c r="U49" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
@@ -2939,10 +3450,18 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
+      <c r="T50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="W50" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="X50" s="16"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
@@ -2978,8 +3497,12 @@
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="16"/>
+      <c r="T51" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
@@ -2989,9 +3512,12 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576 L4:L1048576 T4:T1048576 P4:P1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576 L4:L1048576 P4:P1048576">
       <formula1>"输入,输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+      <formula1>"输入,输出,-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
